--- a/AdditionalPracticals/ExcelFunctions-Exercise.xlsx
+++ b/AdditionalPracticals/ExcelFunctions-Exercise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESOFT-Gampaha\DiIT\DiTEC Lecture materials - PERSONALIZED\Module 2_Enhancing Productivity with MS Office\PersonalNote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESOFT-Gampaha\DiIT\DiTEC Lecture materials - PERSONALIZED\Module 2_Enhancing Productivity with MS Office\PersonalNote\AdditionalPracticals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC038A9-056D-49AA-99C1-39391CD70BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F253CB1-D1F4-4741-9F1E-91620ED3E375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{34F2CEFC-0A9E-48E0-86DC-C421D534CE75}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>Total</t>
   </si>
@@ -427,7 +427,7 @@
   </si>
   <si>
     <r>
-      <t>11.</t>
+      <t>10.</t>
     </r>
     <r>
       <rPr>
@@ -436,7 +436,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">  </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -445,12 +445,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Determine if each student is eligible for the Science stream based on their total marks in Science and Maths.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.</t>
+      <t>Sort the students in descending order of their total marks.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12.</t>
     </r>
     <r>
       <rPr>
@@ -459,7 +459,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -468,12 +468,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Sort the students in descending order of their total marks.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>12.</t>
+      <t>Create a bar chart to visualize the average marks of all students.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>13.</t>
     </r>
     <r>
       <rPr>
@@ -482,7 +482,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -491,12 +491,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Create a bar chart to visualize the average marks of all students.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>13.</t>
+      <t>Determine the number of students who scored below 50 in Art.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.</t>
     </r>
     <r>
       <rPr>
@@ -514,12 +514,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Determine the number of students who scored below 50 in Art.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>14.</t>
+      <t>Create a pie chart showing the distribution of grades among all students.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15.</t>
     </r>
     <r>
       <rPr>
@@ -528,7 +528,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
@@ -537,12 +537,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Create a pie chart showing the distribution of grades among all students.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>15.</t>
+      <t>Determine if a student with Ref. No 100275 is eligible for the Science stream.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11.</t>
     </r>
     <r>
       <rPr>
@@ -560,8 +560,298 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Determine if a student with Ref. No 100275 is eligible for the Science stream.</t>
-    </r>
+      <t xml:space="preserve">Determine if each student is eligible for the Science stream based on their total marks in Science and Maths in column 'P'. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Note that a student will be eligible for the science stream only if they score more than 150 marks in total for science and maths. </t>
+  </si>
+  <si>
+    <t>Task 1: Create a Line Chart</t>
+  </si>
+  <si>
+    <r>
+      <t>Objective</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: To visualize the trend of each item category over the months.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Select the entire dataset.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Go to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Insert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tab.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Choose </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Line Chart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the Charts group.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Customize the chart by adding titles, legends, and adjusting the axes.</t>
+  </si>
+  <si>
+    <t>Task 2: Create a Column Chart</t>
+  </si>
+  <si>
+    <r>
+      <t>Objective</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: To compare the sales of different items for each month.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Choose </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Clustered Column Chart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the Charts group.</t>
+    </r>
+  </si>
+  <si>
+    <t>Task 3: Create a Stacked Column Chart</t>
+  </si>
+  <si>
+    <r>
+      <t>Objective</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: To show the cumulative sales for each month and the contribution of each item.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Choose </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Stacked Column Chart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the Charts group.</t>
+    </r>
+  </si>
+  <si>
+    <t>Task 4: Create a Pie Chart for a Single Month</t>
+  </si>
+  <si>
+    <r>
+      <t>Objective</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: To show the proportion of sales of each item in a specific month.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Select the data for a single month (e.g., April).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Choose </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Pie Chart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the Charts group.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Customize the chart by adding titles, data labels, and adjusting the design.</t>
+  </si>
+  <si>
+    <t>Task 5: Create a Bar Chart</t>
+  </si>
+  <si>
+    <r>
+      <t>Objective</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: To compare the sales of different items over the months.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Choose </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Clustered Bar Chart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the Charts group.</t>
+    </r>
+  </si>
+  <si>
+    <t>Task 6: Create a Scatter Plot</t>
+  </si>
+  <si>
+    <r>
+      <t>Objective</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: To analyze the relationship between the sales of two different items.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Select the data for two items (e.g., Text Books and Novels).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Choose </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Scatter Plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the Charts group.</t>
+    </r>
+  </si>
+  <si>
+    <t>Excel Charts</t>
   </si>
 </sst>
 </file>
@@ -572,7 +862,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,6 +919,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -651,7 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -692,28 +1003,33 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1036,21 +1352,21 @@
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="15" max="15" width="23.28515625" customWidth="1"/>
     <col min="16" max="16" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:16">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
@@ -1080,17 +1396,17 @@
       <c r="M3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16">
       <c r="B4">
         <v>100287</v>
       </c>
@@ -1122,7 +1438,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16">
       <c r="B5">
         <v>100286</v>
       </c>
@@ -1154,7 +1470,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16">
       <c r="B6">
         <v>100285</v>
       </c>
@@ -1186,39 +1502,39 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
+    <row r="7" spans="2:16">
+      <c r="B7">
         <v>100284</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7">
         <v>75</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7">
         <v>26</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7">
         <v>61</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7">
         <v>17</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7">
         <v>95</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7">
         <v>18</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7">
         <v>49</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16">
       <c r="B8">
         <v>100283</v>
       </c>
@@ -1250,7 +1566,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16">
       <c r="B9">
         <v>100282</v>
       </c>
@@ -1278,11 +1594,11 @@
       <c r="J9">
         <v>20</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16">
       <c r="B10">
         <v>100281</v>
       </c>
@@ -1314,7 +1630,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16">
       <c r="B11">
         <v>100280</v>
       </c>
@@ -1346,7 +1662,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16">
       <c r="B12">
         <v>100279</v>
       </c>
@@ -1378,7 +1694,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16">
       <c r="B13">
         <v>100278</v>
       </c>
@@ -1410,7 +1726,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16">
       <c r="B14">
         <v>100277</v>
       </c>
@@ -1442,7 +1758,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16">
       <c r="B15">
         <v>100276</v>
       </c>
@@ -1474,7 +1790,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16">
       <c r="B16">
         <v>100275</v>
       </c>
@@ -1506,7 +1822,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17">
         <v>100274</v>
       </c>
@@ -1538,7 +1854,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18">
         <v>100273</v>
       </c>
@@ -1570,7 +1886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19">
         <v>100272</v>
       </c>
@@ -1602,7 +1918,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20">
         <v>100271</v>
       </c>
@@ -1634,7 +1950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21">
         <v>100270</v>
       </c>
@@ -1666,7 +1982,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22">
         <v>100269</v>
       </c>
@@ -1698,7 +2014,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23">
         <v>100268</v>
       </c>
@@ -1730,7 +2046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24">
         <v>100267</v>
       </c>
@@ -1762,7 +2078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25">
         <v>100266</v>
       </c>
@@ -1794,7 +2110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26">
         <v>100265</v>
       </c>
@@ -1826,7 +2142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27">
         <v>100264</v>
       </c>
@@ -1858,7 +2174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28">
         <v>100263</v>
       </c>
@@ -1890,7 +2206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29">
         <v>100262</v>
       </c>
@@ -1922,7 +2238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30">
         <v>100261</v>
       </c>
@@ -1954,7 +2270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31">
         <v>100260</v>
       </c>
@@ -1986,7 +2302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11">
       <c r="B32">
         <v>100259</v>
       </c>
@@ -2018,7 +2334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11">
       <c r="B33">
         <v>100258</v>
       </c>
@@ -2050,31 +2366,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="14" t="s">
+    <row r="34" spans="2:11">
+      <c r="B34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="14" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="14"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
+      <c r="C35" s="17"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="14"/>
+      <c r="C36" s="17"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K4:K33">
@@ -2096,16 +2412,16 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2114,7 +2430,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2124,19 +2440,19 @@
       <c r="G2" s="11"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2146,7 +2462,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
@@ -2168,7 +2484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
@@ -2195,7 +2511,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
@@ -2222,7 +2538,7 @@
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
@@ -2249,7 +2565,7 @@
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
@@ -2276,7 +2592,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2286,7 +2602,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2296,7 +2612,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2306,7 +2622,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2316,7 +2632,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2326,7 +2642,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2336,7 +2652,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2346,7 +2662,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2356,7 +2672,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2366,7 +2682,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2376,7 +2692,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2386,7 +2702,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2396,7 +2712,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2406,7 +2722,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2416,7 +2732,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2426,7 +2742,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2436,7 +2752,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2446,7 +2762,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2456,7 +2772,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2466,7 +2782,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -2476,7 +2792,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2486,7 +2802,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2496,7 +2812,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2506,7 +2822,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2516,7 +2832,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2526,7 +2842,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2536,7 +2852,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2546,7 +2862,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -2556,7 +2872,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2566,7 +2882,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2576,7 +2892,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2586,7 +2902,7 @@
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2596,7 +2912,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2606,7 +2922,7 @@
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2616,7 +2932,7 @@
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2626,7 +2942,7 @@
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2636,7 +2952,7 @@
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -2659,32 +2975,35 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:11" ht="23.25">
+      <c r="A2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="23.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.25">
       <c r="B4" s="20" t="s">
         <v>60</v>
       </c>
@@ -2698,7 +3017,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="6" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="20.25">
       <c r="B6" s="20" t="s">
         <v>61</v>
       </c>
@@ -2712,7 +3031,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="20.25">
       <c r="B8" s="20" t="s">
         <v>62</v>
       </c>
@@ -2726,7 +3045,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="10" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="20.25">
       <c r="B10" s="20" t="s">
         <v>63</v>
       </c>
@@ -2740,7 +3059,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="12" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="20.25">
       <c r="B12" s="20" t="s">
         <v>64</v>
       </c>
@@ -2754,7 +3073,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="14" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="20.25">
       <c r="B14" s="20" t="s">
         <v>65</v>
       </c>
@@ -2768,7 +3087,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="16" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="20.25">
       <c r="B16" s="20" t="s">
         <v>66</v>
       </c>
@@ -2782,7 +3101,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="18" spans="2:17" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" ht="20.25">
       <c r="B18" s="20" t="s">
         <v>67</v>
       </c>
@@ -2796,7 +3115,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="20" spans="2:17" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" ht="20.25">
       <c r="B20" s="20" t="s">
         <v>68</v>
       </c>
@@ -2810,9 +3129,9 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="22" spans="2:17" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" ht="20.25">
       <c r="B22" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2824,9 +3143,9 @@
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="24" spans="2:17" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" ht="20.25">
       <c r="B24" s="20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -2844,9 +3163,14 @@
       <c r="P24" s="20"/>
       <c r="Q24" s="20"/>
     </row>
-    <row r="26" spans="2:17" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17">
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="20.25">
       <c r="B26" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
@@ -2858,9 +3182,9 @@
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="28" spans="2:17" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" ht="20.25">
       <c r="B28" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -2872,9 +3196,9 @@
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="30" spans="2:17" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" ht="20.25">
       <c r="B30" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
@@ -2887,9 +3211,9 @@
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
     </row>
-    <row r="32" spans="2:17" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" ht="20.25">
       <c r="B32" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -2903,8 +3227,8 @@
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
     </row>
-    <row r="34" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
+    <row r="34" spans="2:2" ht="18.75">
+      <c r="B34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2931,12 +3255,317 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12EBB57-40BA-4B15-AB9C-A108AE0C10C4}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="23.25">
+      <c r="B2" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="2:8" ht="18">
+      <c r="B3" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="23"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="18">
+      <c r="B12" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="23"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="18">
+      <c r="B21" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="23"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="18">
+      <c r="B30" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="23"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="18">
+      <c r="B39" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="23"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="18">
+      <c r="B48" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="23"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="18">
+      <c r="B57" s="21"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="22"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="23"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="23"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="23"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="23"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="23"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="23"/>
+    </row>
+    <row r="67" spans="2:2" ht="18">
+      <c r="B67" s="21"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="22"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="23"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="23"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="23"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="23"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="23"/>
+    </row>
+    <row r="76" spans="2:2" ht="18">
+      <c r="B76" s="21"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="22"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="23"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="23"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="23"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="23"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="23"/>
+    </row>
+    <row r="85" spans="2:2" ht="18">
+      <c r="B85" s="21"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="22"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="23"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="23"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="23"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="23"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AdditionalPracticals/ExcelFunctions-Exercise.xlsx
+++ b/AdditionalPracticals/ExcelFunctions-Exercise.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESOFT-Gampaha\DiIT\DiTEC Lecture materials - PERSONALIZED\Module 2_Enhancing Productivity with MS Office\PersonalNote\AdditionalPracticals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F253CB1-D1F4-4741-9F1E-91620ED3E375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2687DCE9-042A-4F77-8925-1641CFC9EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{34F2CEFC-0A9E-48E0-86DC-C421D534CE75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{34F2CEFC-0A9E-48E0-86DC-C421D534CE75}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentMarks" sheetId="3" r:id="rId1"/>
-    <sheet name="BookStore" sheetId="1" r:id="rId2"/>
-    <sheet name="Questions-StudentMarks" sheetId="4" r:id="rId3"/>
+    <sheet name="Questions-StudentMarks" sheetId="4" r:id="rId2"/>
+    <sheet name="BookStore" sheetId="1" r:id="rId3"/>
     <sheet name="Questions-BookStore" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
   <si>
     <t>Total</t>
   </si>
@@ -217,354 +217,6 @@
   </si>
   <si>
     <t>FF</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Calculate the total marks for each student across all subjects.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Calculate the average marks for each student across all subjects.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Find the maximum marks for each subject.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Find the minimum marks for each subject.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Calculate the total marks for Science and Maths for each student.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Calculate the total number of students in the dataset.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Calculate the average marks for each subject.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Find the total marks of the student with Ref. No 100268.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Find the average marks for the student named "Jardine".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Sort the students in descending order of their total marks.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>12.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Create a bar chart to visualize the average marks of all students.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>13.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Determine the number of students who scored below 50 in Art.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>14.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Create a pie chart showing the distribution of grades among all students.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>15.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Determine if a student with Ref. No 100275 is eligible for the Science stream.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Determine if each student is eligible for the Science stream based on their total marks in Science and Maths in column 'P'. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Note that a student will be eligible for the science stream only if they score more than 150 marks in total for science and maths. </t>
   </si>
   <si>
     <t>Task 1: Create a Line Chart</t>
@@ -852,6 +504,225 @@
   </si>
   <si>
     <t>Excel Charts</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Calculate the total marks for each student across all subjects in column L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Calculate the average marks for each student across all subjects in column M</t>
+    </r>
+  </si>
+  <si>
+    <t>Avg Module marks</t>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Find the maximum marks for each subject and fill D35-K35 cells</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Find the minimum marks for each subject and fill D36-K36 cells</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Fill column "N" according to below instructions.  </t>
+  </si>
+  <si>
+    <t>Assign grade "A" to students who got more than 90 average marks, grade "B" to students who got more than 70 average marks, grade "C" to students who got more than 50 average marks, grade "F" to students who got less than 50 average marks.</t>
+  </si>
+  <si>
+    <t>Note that a student will be eligible for the science stream only if they score more than 150 marks in total for science and maths. Insert whether eligible or not in P column</t>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Calculate the total marks for Science and Maths for each student in column O </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Calculate the total number of students in the dataset and enter into C34. (use COUNTA function for student name column) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Calculate the average marks for each subject and fill D37 - K37 cells</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sort the students in descending order according to their total marks.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Determine if each student is eligible for the Science stream based on their total marks in Science and Maths in column 'P'. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -862,7 +733,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,6 +811,19 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -962,7 +846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1011,8 +895,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1020,16 +921,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1346,14 +1237,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72018AA0-D2F7-4D64-B4BA-1B370C67B9CD}">
-  <dimension ref="B3:P36"/>
+  <dimension ref="B3:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="A27" zoomScale="115" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="15" max="15" width="23.28515625" customWidth="1"/>
     <col min="16" max="16" width="28" customWidth="1"/>
@@ -1440,426 +1332,426 @@
     </row>
     <row r="5" spans="2:16">
       <c r="B5">
-        <v>100286</v>
+        <v>100263</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
         <v>24</v>
       </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
       <c r="G5">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I5">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="J5">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K5">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:16">
       <c r="B6">
-        <v>100285</v>
+        <v>100286</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>94</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="J6">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7">
-        <v>100284</v>
+        <v>100262</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F7">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="I7">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J7">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="B8">
-        <v>100283</v>
+        <v>100285</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="H8">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I8">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9">
-        <v>100282</v>
+        <v>100261</v>
       </c>
       <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>95</v>
+      </c>
+      <c r="E9">
+        <v>72</v>
+      </c>
+      <c r="F9">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>42</v>
+      </c>
+      <c r="J9">
         <v>35</v>
       </c>
-      <c r="D9">
-        <v>91</v>
-      </c>
-      <c r="E9">
-        <v>46</v>
-      </c>
-      <c r="F9">
-        <v>70</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>54</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
+      <c r="K9">
         <v>20</v>
-      </c>
-      <c r="K9">
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10">
-        <v>100281</v>
+        <v>100284</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E10">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G10">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="H10">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="I10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J10">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11">
-        <v>100280</v>
+        <v>100260</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E11">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="G11">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H11">
+        <v>39</v>
+      </c>
+      <c r="I11">
         <v>46</v>
       </c>
-      <c r="I11">
-        <v>27</v>
-      </c>
       <c r="J11">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:16">
       <c r="B12">
-        <v>100279</v>
+        <v>100283</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="I12">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="J12">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:16">
       <c r="B13">
-        <v>100278</v>
+        <v>100259</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="G13">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H13">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J13">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="K13">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:16">
       <c r="B14">
-        <v>100277</v>
+        <v>100282</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D14">
+        <v>91</v>
+      </c>
+      <c r="E14">
+        <v>46</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>54</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
         <v>79</v>
-      </c>
-      <c r="E14">
-        <v>41</v>
-      </c>
-      <c r="F14">
-        <v>85</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>66</v>
-      </c>
-      <c r="I14">
-        <v>17</v>
-      </c>
-      <c r="J14">
-        <v>53</v>
-      </c>
-      <c r="K14">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:16">
       <c r="B15">
-        <v>100276</v>
+        <v>100258</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="G15">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="I15">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="J15">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:16">
       <c r="B16">
-        <v>100275</v>
+        <v>100281</v>
       </c>
       <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>36</v>
+      </c>
+      <c r="E16">
         <v>42</v>
       </c>
-      <c r="D16">
-        <v>87</v>
-      </c>
-      <c r="E16">
-        <v>16</v>
-      </c>
       <c r="F16">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="G16">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="I16">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J16">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="K16">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17">
-        <v>100274</v>
+        <v>100280</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="G17">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H17">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="I17">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="J17">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="K17">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18">
-        <v>100273</v>
+        <v>100279</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>13</v>
@@ -1868,546 +1760,820 @@
         <v>56</v>
       </c>
       <c r="F18">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I18">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="J18">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19">
-        <v>100272</v>
+        <v>100278</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="F19">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="G19">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H19">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I19">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="J19">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="K19">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20">
-        <v>100271</v>
+        <v>100277</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G20">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="I20">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="J20">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21">
-        <v>100270</v>
+        <v>100276</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E21">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F21">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="H21">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="I21">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J21">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22">
-        <v>100269</v>
+        <v>100275</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E22">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H22">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I22">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="J22">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="K22">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23">
-        <v>100268</v>
+        <v>100274</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E23">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F23">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I23">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J23">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24">
-        <v>100267</v>
+        <v>100273</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="G24">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I24">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="J24">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="K24">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25">
-        <v>100266</v>
+        <v>100272</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E25">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="F25">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G25">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="I25">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J25">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="K25">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26">
-        <v>100265</v>
+        <v>100271</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E26">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F26">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G26">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I26">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J26">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K26">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27">
-        <v>100264</v>
+        <v>100270</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G27">
+        <v>74</v>
+      </c>
+      <c r="H27">
         <v>90</v>
       </c>
-      <c r="H27">
-        <v>94</v>
-      </c>
       <c r="I27">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J27">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:11">
       <c r="B28">
-        <v>100263</v>
+        <v>100269</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F28">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="G28">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H28">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I28">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="J28">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K28">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="B29">
-        <v>100262</v>
+        <v>100268</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="E29">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F29">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H29">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I29">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="J29">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="K29">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30">
-        <v>100261</v>
+        <v>100267</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="E30">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="F30">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G30">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I30">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="J30">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="K30">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31">
-        <v>100260</v>
+        <v>100266</v>
       </c>
       <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
         <v>57</v>
       </c>
-      <c r="D31">
-        <v>59</v>
-      </c>
-      <c r="E31">
-        <v>72</v>
-      </c>
       <c r="F31">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G31">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H31">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="J31">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="K31">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:11">
       <c r="B32">
-        <v>100259</v>
+        <v>100265</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E32">
+        <v>43</v>
+      </c>
+      <c r="F32">
+        <v>41</v>
+      </c>
+      <c r="G32">
+        <v>35</v>
+      </c>
+      <c r="H32">
         <v>12</v>
       </c>
-      <c r="F32">
-        <v>27</v>
-      </c>
-      <c r="G32">
-        <v>61</v>
-      </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
       <c r="I32">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="J32">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:11">
       <c r="B33">
-        <v>100258</v>
+        <v>100264</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="E33">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H33">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I33">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J33">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="K33">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="17" t="s">
+      <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="17" t="s">
+      <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="17" t="s">
+      <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="17"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K4:K33">
-    <sortCondition descending="1" ref="K4:K33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:P36">
+    <sortCondition ref="C4:C36"/>
   </sortState>
-  <mergeCells count="4">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:K34"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951A1916-ED33-45EB-871A-CCF9CE1D9D85}">
+  <dimension ref="A4:Q36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="116.140625" customWidth="1"/>
+    <col min="11" max="11" width="98.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:11" ht="23.25">
+      <c r="A4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:11" ht="23.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.25">
+      <c r="B6" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.25">
+      <c r="B8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.25">
+      <c r="B10" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.25">
+      <c r="B12" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" ht="20.25">
+      <c r="B14" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" ht="47.25">
+      <c r="B15" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="2:17" ht="20.25">
+      <c r="B17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="19" spans="2:17" ht="40.5">
+      <c r="B19" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="21" spans="2:17" ht="20.25">
+      <c r="B21" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="23" spans="2:17" ht="20.25">
+      <c r="B23" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="25" spans="2:17" ht="40.5">
+      <c r="B25" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+    </row>
+    <row r="26" spans="2:17" ht="31.5">
+      <c r="B26" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="2:17" ht="15" customHeight="1">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="30" spans="2:17" ht="20.25">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="32" spans="2:17" ht="20.25">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="34" spans="2:13" ht="20.25">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="36" spans="2:13" ht="18.75">
+      <c r="B36" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769A7AD3-4E7D-4CAD-9983-F351436D4B76}">
   <dimension ref="A1:M46"/>
   <sheetViews>
@@ -2444,13 +2610,13 @@
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:13" ht="18.75">
       <c r="A4" s="7"/>
@@ -2970,295 +3136,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951A1916-ED33-45EB-871A-CCF9CE1D9D85}">
-  <dimension ref="A2:Q34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" ht="23.25">
-      <c r="A2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="23.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.25">
-      <c r="B4" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.25">
-      <c r="B6" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="8" spans="1:11" ht="20.25">
-      <c r="B8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.25">
-      <c r="B10" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="12" spans="1:11" ht="20.25">
-      <c r="B12" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="14" spans="1:11" ht="20.25">
-      <c r="B14" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="16" spans="1:11" ht="20.25">
-      <c r="B16" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="18" spans="2:17" ht="20.25">
-      <c r="B18" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="20" spans="2:17" ht="20.25">
-      <c r="B20" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="22" spans="2:17" ht="20.25">
-      <c r="B22" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="24" spans="2:17" ht="20.25">
-      <c r="B24" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-    </row>
-    <row r="25" spans="2:17">
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="20.25">
-      <c r="B26" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="28" spans="2:17" ht="20.25">
-      <c r="B28" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="30" spans="2:17" ht="20.25">
-      <c r="B30" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-    </row>
-    <row r="32" spans="2:17" ht="20.25">
-      <c r="B32" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-    </row>
-    <row r="34" spans="2:2" ht="18.75">
-      <c r="B34" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B24:Q24"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B10:K10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12EBB57-40BA-4B15-AB9C-A108AE0C10C4}">
   <dimension ref="B2:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3267,300 +3150,300 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="23.25">
-      <c r="B2" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="B2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:8" ht="18">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="19"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="18">
+      <c r="B12" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="19"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="18">
+      <c r="B21" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="19"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="18">
+      <c r="B30" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="19"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="22" t="s">
+    <row r="39" spans="2:2" ht="18">
+      <c r="B39" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="23"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="23" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="23" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="19"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="23" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="18">
+      <c r="B48" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="23" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="18">
-      <c r="B12" s="21" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="19"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="22" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="23"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="18">
-      <c r="B21" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="23"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" ht="18">
-      <c r="B30" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="23"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="18">
-      <c r="B39" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="23"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" ht="18">
-      <c r="B48" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="23"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="23" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="23" t="s">
-        <v>81</v>
+      <c r="B55" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="18">
-      <c r="B57" s="21"/>
+      <c r="B57" s="17"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="22"/>
+      <c r="B59" s="18"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="23"/>
+      <c r="B60" s="19"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="23"/>
+      <c r="B61" s="19"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="23"/>
+      <c r="B62" s="19"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="23"/>
+      <c r="B63" s="19"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="23"/>
+      <c r="B64" s="19"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="23"/>
+      <c r="B65" s="19"/>
     </row>
     <row r="67" spans="2:2" ht="18">
-      <c r="B67" s="21"/>
+      <c r="B67" s="17"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="22"/>
+      <c r="B69" s="18"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="23"/>
+      <c r="B70" s="19"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="23"/>
+      <c r="B71" s="19"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="23"/>
+      <c r="B72" s="19"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="23"/>
+      <c r="B73" s="19"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="23"/>
+      <c r="B74" s="19"/>
     </row>
     <row r="76" spans="2:2" ht="18">
-      <c r="B76" s="21"/>
+      <c r="B76" s="17"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="22"/>
+      <c r="B78" s="18"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="23"/>
+      <c r="B79" s="19"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="23"/>
+      <c r="B80" s="19"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="23"/>
+      <c r="B81" s="19"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="23"/>
+      <c r="B82" s="19"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="23"/>
+      <c r="B83" s="19"/>
     </row>
     <row r="85" spans="2:2" ht="18">
-      <c r="B85" s="21"/>
+      <c r="B85" s="17"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="22"/>
+      <c r="B87" s="18"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="23"/>
+      <c r="B88" s="19"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="23"/>
+      <c r="B89" s="19"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="23"/>
+      <c r="B90" s="19"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="23"/>
+      <c r="B91" s="19"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="23"/>
+      <c r="B92" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
